--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122D2C7E-B1F3-44A9-B8BD-CDCB9C32035E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715BB6BE-EEF4-47F9-8DAC-6511D841EE22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referensi" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Penulis</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>[100%]</t>
+  </si>
+  <si>
+    <t>Adorable73</t>
+  </si>
+  <si>
+    <t>https://answers.unity.com/questions/743400/database-sqlite-setup-for-unity.html</t>
+  </si>
+  <si>
+    <t>SQLite in Unity</t>
+  </si>
+  <si>
+    <t>Setup SQLite in Unity tutorial</t>
   </si>
 </sst>
 </file>
@@ -391,16 +403,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="58.44140625" customWidth="1"/>
+    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
@@ -430,6 +443,20 @@
       </c>
       <c r="D2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -444,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5982EF-6D54-4DFF-84A0-34B808DCE994}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715BB6BE-EEF4-47F9-8DAC-6511D841EE22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E8FDE9-B7DC-45A8-B08B-84138F088F53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referensi" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Penulis</t>
   </si>
@@ -75,6 +75,45 @@
   </si>
   <si>
     <t>Setup SQLite in Unity tutorial</t>
+  </si>
+  <si>
+    <t>https://github.com/Unity-Technologies/NavMeshComponents</t>
+  </si>
+  <si>
+    <t>NavMesh Components</t>
+  </si>
+  <si>
+    <t>Buat Navmesh dengan komponen</t>
+  </si>
+  <si>
+    <t>[???%]</t>
+  </si>
+  <si>
+    <t>Gregoryl</t>
+  </si>
+  <si>
+    <t>https://forum.unity.com/threads/2019a11-cinemachine-doesnt-see-timeline-namespace.593515/</t>
+  </si>
+  <si>
+    <t>Unity Timeline is now a package</t>
+  </si>
+  <si>
+    <t>Error will occur for assumed built-in Timeline packages</t>
+  </si>
+  <si>
+    <t>SQLite</t>
+  </si>
+  <si>
+    <t>http://www.sqlite.org/download.html</t>
+  </si>
+  <si>
+    <t>SQLite Binary</t>
+  </si>
+  <si>
+    <t>Unity pakai database SQLite</t>
+  </si>
+  <si>
+    <t>[&lt;100%]</t>
   </si>
 </sst>
 </file>
@@ -403,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,6 +498,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{8341CB2B-2293-45F0-88B5-43136C56BE15}"/>
@@ -469,10 +522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5982EF-6D54-4DFF-84A0-34B808DCE994}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,6 +570,40 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E8FDE9-B7DC-45A8-B08B-84138F088F53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C690EB-7FA5-4D0E-B20C-AE6F395B87F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referensi" sheetId="1" r:id="rId1"/>
     <sheet name="Aset" sheetId="2" r:id="rId2"/>
+    <sheet name="Alat" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>Penulis</t>
   </si>
@@ -114,6 +115,96 @@
   </si>
   <si>
     <t>[&lt;100%]</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/mynameisjacobj/8584bdc1e9e104b005044fdfda5fe9e5</t>
+  </si>
+  <si>
+    <t>mynamesisjacobj</t>
+  </si>
+  <si>
+    <t>Non Convex Mesh Collider</t>
+  </si>
+  <si>
+    <t>Unity tidak mendukun mesh collider non-cembung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unity Asset Collection </t>
+  </si>
+  <si>
+    <t>http://unityassetcollection.com/non-convex-mesh-collider-free-download/</t>
+  </si>
+  <si>
+    <t>[Bajakan] Non Convex Mesh Collider</t>
+  </si>
+  <si>
+    <t>[Tidak digunakan, larangan, dilarang bajakan] buat Mesh Collider cekung!</t>
+  </si>
+  <si>
+    <t>Productivity Boost</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/tools/physics/non-convex-mesh-collider-84867</t>
+  </si>
+  <si>
+    <t>[ORI] Non Convex Mesh Collider</t>
+  </si>
+  <si>
+    <t>[Tidak digunakan, tidak gratis] buat Mesh Collider cekung!</t>
+  </si>
+  <si>
+    <t>[&gt;100%]</t>
+  </si>
+  <si>
+    <t>Free SFX</t>
+  </si>
+  <si>
+    <t>https://freesfx.co.uk/</t>
+  </si>
+  <si>
+    <t>Free SFX library</t>
+  </si>
+  <si>
+    <t>Pustaka efek suara gratis</t>
+  </si>
+  <si>
+    <t>Blender Foundation</t>
+  </si>
+  <si>
+    <t>https://www.blender.org</t>
+  </si>
+  <si>
+    <t>Blender 3D</t>
+  </si>
+  <si>
+    <t>Buat apapun 3D</t>
+  </si>
+  <si>
+    <t>https://www.unity3d.com</t>
+  </si>
+  <si>
+    <t>Unity Engine</t>
+  </si>
+  <si>
+    <t>buat game 2D atau 3D</t>
+  </si>
+  <si>
+    <t>cegaton</t>
+  </si>
+  <si>
+    <t>https://blender.stackexchange.com/questions/10725/how-do-i-create-an-equilateral-tetrahedron</t>
+  </si>
+  <si>
+    <t>Robin bets</t>
+  </si>
+  <si>
+    <t>Tetrahedron Blender</t>
+  </si>
+  <si>
+    <t>Buat dengan fungsi matematika</t>
+  </si>
+  <si>
+    <t>buat dengan sudut berlawanan</t>
   </si>
 </sst>
 </file>
@@ -442,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,6 +603,48 @@
         <v>25</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{8341CB2B-2293-45F0-88B5-43136C56BE15}"/>
@@ -522,17 +655,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5982EF-6D54-4DFF-84A0-34B808DCE994}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="58.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="73.21875" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,7 +738,135 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927B1521-9E15-4B36-BF38-84E29CC4BA22}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="73.21875" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{2B93406E-B914-4F7E-9D04-85AA8F1EDAE1}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{B4A70F25-0E74-4F6A-8780-C5CEFFE6BD3E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C690EB-7FA5-4D0E-B20C-AE6F395B87F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C936B6-7461-4E6B-AFB2-10171F4B8434}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>Penulis</t>
   </si>
@@ -205,6 +205,27 @@
   </si>
   <si>
     <t>buat dengan sudut berlawanan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PUSOg5YEflM</t>
+  </si>
+  <si>
+    <t>Pro Builder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Pro Builder Perkenalan tutorial</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLa1F2ddGya_8V90Kd5eC5PeBjySbXWGK1</t>
+  </si>
+  <si>
+    <t>Blender Fundamentals</t>
+  </si>
+  <si>
+    <t>Blender tutorial beginner lengkap</t>
   </si>
 </sst>
 </file>
@@ -533,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,7 +568,7 @@
     <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,79 +582,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -642,14 +666,44 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{8341CB2B-2293-45F0-88B5-43136C56BE15}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8341CB2B-2293-45F0-88B5-43136C56BE15}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.bing.com/search?q=unity+probuilder&amp;form=EDGTCT&amp;qs=AS&amp;cvid=21509d34d4484303becc906eef91a8fb&amp;refig=a8e419fc3ce1430fe0c1388e8b2d3902&amp;cc=ID&amp;setlang=id-ID&amp;plvar=0&amp;PC=ASTS" xr:uid="{8888DA5E-20EE-497B-9CE3-679392D2E28C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C936B6-7461-4E6B-AFB2-10171F4B8434}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F92BD5-0068-4570-9736-AE81E78C5EA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>Penulis</t>
   </si>
@@ -226,6 +226,39 @@
   </si>
   <si>
     <t>Blender tutorial beginner lengkap</t>
+  </si>
+  <si>
+    <t>inScope Studios</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=of_oLAvWfSI</t>
+  </si>
+  <si>
+    <t>Arduino to Unity input</t>
+  </si>
+  <si>
+    <t>Arduino interaksi dengan Unity</t>
+  </si>
+  <si>
+    <t>Kamran Bigdely</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/54677130/the-type-or-namespace-name-ports-does-not-exist-in-the-namespace-system-io/54679189#54679189</t>
+  </si>
+  <si>
+    <t>Namespace System.IO.Ports not exist</t>
+  </si>
+  <si>
+    <t>Perbaiki library Serial Port yang hilang</t>
+  </si>
+  <si>
+    <t>https://forum.unity.com/threads/cant-use-system-io-ports.141316/</t>
+  </si>
+  <si>
+    <t>Dimana System.IO.Ports?</t>
+  </si>
+  <si>
+    <t>Kenapa error System.IO.Ports?</t>
   </si>
 </sst>
 </file>
@@ -554,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,13 +730,56 @@
         <v>67</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8341CB2B-2293-45F0-88B5-43136C56BE15}"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.bing.com/search?q=unity+probuilder&amp;form=EDGTCT&amp;qs=AS&amp;cvid=21509d34d4484303becc906eef91a8fb&amp;refig=a8e419fc3ce1430fe0c1388e8b2d3902&amp;cc=ID&amp;setlang=id-ID&amp;plvar=0&amp;PC=ASTS" xr:uid="{8888DA5E-20EE-497B-9CE3-679392D2E28C}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.bing.com/search?q=unity+arduino&amp;form=EDGTCT&amp;qs=AS&amp;cvid=994252eb30c24d75a8f449fe2da9e57b&amp;refig=b7058406c71b4c25b4d274b40bc530dc&amp;cc=ID&amp;setlang=id-ID&amp;plvar=0&amp;PC=ASTS" xr:uid="{9DB667AB-3576-4228-99AD-61E427039138}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F92BD5-0068-4570-9736-AE81E78C5EA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDC9278-A9E7-4647-A2B1-1F36F2FD881C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>Penulis</t>
   </si>
@@ -259,12 +259,54 @@
   </si>
   <si>
     <t>Kenapa error System.IO.Ports?</t>
+  </si>
+  <si>
+    <t>Marcos Shultz</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/tools/camera/ms-advanced-camera-controller-81759</t>
+  </si>
+  <si>
+    <t>Advanced Camera Controller</t>
+  </si>
+  <si>
+    <t>Paket Kamera Canggih</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>Lint and Buttons</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/eazy-camera-102275</t>
+  </si>
+  <si>
+    <t>Easy Camera</t>
+  </si>
+  <si>
+    <t>Kamera 3rd person gampang</t>
+  </si>
+  <si>
+    <t>Tutplus</t>
+  </si>
+  <si>
+    <t>https://code.tutsplus.com/tutorials/unity3d-third-person-cameras--mobile-11230</t>
+  </si>
+  <si>
+    <t>3rd Person camera tutorial</t>
+  </si>
+  <si>
+    <t>Cara bikin kamera 3rd person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,9 +345,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipertaut" xfId="1" builtinId="8"/>
@@ -587,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,6 +815,20 @@
         <v>78</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8341CB2B-2293-45F0-88B5-43136C56BE15}"/>
@@ -785,10 +842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5982EF-6D54-4DFF-84A0-34B808DCE994}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,9 +855,10 @@
     <col min="3" max="3" width="58.44140625" customWidth="1"/>
     <col min="4" max="4" width="62.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -816,8 +874,11 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -833,8 +894,11 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -850,8 +914,11 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -867,8 +934,11 @@
       <c r="E4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -884,8 +954,11 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -901,8 +974,11 @@
       <c r="E6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -918,9 +994,53 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -3,26 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDC9278-A9E7-4647-A2B1-1F36F2FD881C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283F232F-FD5F-456C-84D0-DF5B5B27E135}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referensi" sheetId="1" r:id="rId1"/>
     <sheet name="Aset" sheetId="2" r:id="rId2"/>
     <sheet name="Alat" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="123">
   <si>
     <t>Penulis</t>
   </si>
@@ -126,9 +132,6 @@
     <t>Non Convex Mesh Collider</t>
   </si>
   <si>
-    <t>Unity tidak mendukun mesh collider non-cembung</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unity Asset Collection </t>
   </si>
   <si>
@@ -298,6 +301,102 @@
   </si>
   <si>
     <t>Cara bikin kamera 3rd person</t>
+  </si>
+  <si>
+    <t>Jeremy Blake</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mrgVpZhjOWk</t>
+  </si>
+  <si>
+    <t>Powerup (Song)</t>
+  </si>
+  <si>
+    <t>End kredit song Geogon Polymetry: Haven't Done yet</t>
+  </si>
+  <si>
+    <t>Unity tidak mendukung mesh collider non-cembung</t>
+  </si>
+  <si>
+    <t>Inkscape</t>
+  </si>
+  <si>
+    <t>https://inkscape.org</t>
+  </si>
+  <si>
+    <t>Inkscape Vector</t>
+  </si>
+  <si>
+    <t>Buat vektor!</t>
+  </si>
+  <si>
+    <t>Audacity</t>
+  </si>
+  <si>
+    <t>https://audacity.org</t>
+  </si>
+  <si>
+    <t>edit suara!</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>https://windows.com</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>Sistem operasi populer</t>
+  </si>
+  <si>
+    <t>https://office.com</t>
+  </si>
+  <si>
+    <t>Microsoft Office 365</t>
+  </si>
+  <si>
+    <t>Seperangkat alat produktivitas kantor</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>https://Github.com</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Kontrol versi</t>
+  </si>
+  <si>
+    <t>Sqlite</t>
+  </si>
+  <si>
+    <t>https://sqlite.org</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>DB Browser</t>
+  </si>
+  <si>
+    <t>https://sqlitebrowser.org/</t>
+  </si>
+  <si>
+    <t>Browse database SQLite</t>
+  </si>
+  <si>
+    <t>https://desktop.github.com/</t>
+  </si>
+  <si>
+    <t>Github desktop</t>
+  </si>
+  <si>
+    <t>Interface Github gampang</t>
   </si>
 </sst>
 </file>
@@ -324,12 +423,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -345,10 +450,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipertaut" xfId="1" builtinId="8"/>
@@ -632,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -663,16 +770,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -719,114 +826,114 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
       <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5982EF-6D54-4DFF-84A0-34B808DCE994}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -949,7 +1056,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -959,57 +1066,58 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
+      <c r="F6" s="4">
+        <f>9*15000</f>
+        <v>135000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>82</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -1020,21 +1128,41 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1046,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927B1521-9E15-4B36-BF38-84E29CC4BA22}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,13 +1211,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1097,18 +1225,154 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1116,6 +1380,12 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{2B93406E-B914-4F7E-9D04-85AA8F1EDAE1}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{B4A70F25-0E74-4F6A-8780-C5CEFFE6BD3E}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{EABF5B6B-ACEE-4C33-BD67-3214CE02FAD3}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{185C33C5-16DD-46EC-B979-7177B4C668FA}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{39094EAF-00B6-4DD3-ACE4-765FC52877EB}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{627A03C1-9C03-451E-A9C9-2F5FC22C9ED5}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{AF2171C5-9574-4AE4-871D-FA7A1EE1300E}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{E4A3B2C0-E265-41AA-85FB-647FA8D349F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283F232F-FD5F-456C-84D0-DF5B5B27E135}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA4AAA-AE83-47FD-9171-7C09972620BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referensi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
   <si>
     <t>Penulis</t>
   </si>
@@ -397,6 +397,30 @@
   </si>
   <si>
     <t>Interface Github gampang</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xcn7hz7J7sI</t>
+  </si>
+  <si>
+    <t>Jayanam</t>
+  </si>
+  <si>
+    <t>Camera 3rd person mouse aim</t>
+  </si>
+  <si>
+    <t>kamera arah tetikus</t>
+  </si>
+  <si>
+    <t>Andrey Kubyshkin</t>
+  </si>
+  <si>
+    <t>https://forum.unity.com/threads/moving-character-relative-to-camera.383086/</t>
+  </si>
+  <si>
+    <t>Move character relative to camera</t>
+  </si>
+  <si>
+    <t>Gerakan karakter relative dengan arah hadapan kamera</t>
   </si>
 </sst>
 </file>
@@ -737,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,6 +958,34 @@
       </c>
       <c r="D13" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1176,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927B1521-9E15-4B36-BF38-84E29CC4BA22}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA4AAA-AE83-47FD-9171-7C09972620BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C188E9BF-2D80-467D-98A6-7AB51F13ED8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="138">
   <si>
     <t>Penulis</t>
   </si>
@@ -421,6 +421,27 @@
   </si>
   <si>
     <t>Gerakan karakter relative dengan arah hadapan kamera</t>
+  </si>
+  <si>
+    <t>Mister_Pyxel</t>
+  </si>
+  <si>
+    <t>https://forum.unity.com/threads/simple-rotation-of-the-camera-with-the-mouse-around-the-player.470278/</t>
+  </si>
+  <si>
+    <t>CameraFollow</t>
+  </si>
+  <si>
+    <t>Kamera 3rd person mouse follow</t>
+  </si>
+  <si>
+    <t>EmergentSaga</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bVo0YLLO43s</t>
+  </si>
+  <si>
+    <t>ah cape, gk sesuai keinginan!!! Bikin lagi sendiri saja!</t>
   </si>
 </sst>
 </file>
@@ -761,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,6 +1007,34 @@
       </c>
       <c r="D15" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C188E9BF-2D80-467D-98A6-7AB51F13ED8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE4E7C-E7D9-4E34-B9B5-550D37E107A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referensi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
   <si>
     <t>Penulis</t>
   </si>
@@ -442,6 +442,24 @@
   </si>
   <si>
     <t>ah cape, gk sesuai keinginan!!! Bikin lagi sendiri saja!</t>
+  </si>
+  <si>
+    <t>alok-kr-029</t>
+  </si>
+  <si>
+    <t>https://answers.unity.com/questions/894755/ignore-collision-with-self.html</t>
+  </si>
+  <si>
+    <t>Physic Collision Matrix</t>
+  </si>
+  <si>
+    <t>Buat collision hanya bekerja pada lapisan tertentu.</t>
+  </si>
+  <si>
+    <t>Windows Sounds</t>
+  </si>
+  <si>
+    <t>Suara Windows</t>
   </si>
 </sst>
 </file>
@@ -782,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,6 +1055,20 @@
         <v>137</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8341CB2B-2293-45F0-88B5-43136C56BE15}"/>
@@ -1050,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5982EF-6D54-4DFF-84A0-34B808DCE994}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,6 +1296,23 @@
         <v>30</v>
       </c>
       <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE4E7C-E7D9-4E34-B9B5-550D37E107A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE444595-486D-49E5-B55C-782E1E0D74DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referensi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="147">
   <si>
     <t>Penulis</t>
   </si>
@@ -460,6 +460,15 @@
   </si>
   <si>
     <t>Suara Windows</t>
+  </si>
+  <si>
+    <t>https://docs.unity3d.com/ScriptReference/Object.DontDestroyOnLoad.html</t>
+  </si>
+  <si>
+    <t>Don't Destroy On Load</t>
+  </si>
+  <si>
+    <t>Buat GameObject tidak hancur saat loading</t>
   </si>
 </sst>
 </file>
@@ -800,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,6 +1076,20 @@
       </c>
       <c r="D18" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5982EF-6D54-4DFF-84A0-34B808DCE994}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE444595-486D-49E5-B55C-782E1E0D74DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D506834-9CA8-44EA-9E02-566192024E8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,11 @@
     <sheet name="Aset" sheetId="2" r:id="rId2"/>
     <sheet name="Alat" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Alat!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aset!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Referensi!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
   <si>
     <t>Penulis</t>
   </si>
@@ -469,6 +474,69 @@
   </si>
   <si>
     <t>Buat GameObject tidak hancur saat loading</t>
+  </si>
+  <si>
+    <t>tutor4u</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rZC8i7nq32k&amp;t=45s</t>
+  </si>
+  <si>
+    <t>Animating in Blender, Beginner</t>
+  </si>
+  <si>
+    <t>Dasar-dasar animasi di Blender</t>
+  </si>
+  <si>
+    <t>https://cloud.blender.org</t>
+  </si>
+  <si>
+    <t>Situs kumpulan proyek Blender (Free Trial termasuk)</t>
+  </si>
+  <si>
+    <t>per (default: Unit)</t>
+  </si>
+  <si>
+    <t>bulan</t>
+  </si>
+  <si>
+    <t>LaunchExcel</t>
+  </si>
+  <si>
+    <t>https://www.launchexcel.com/autofilter-keyboard-shortcut-video/</t>
+  </si>
+  <si>
+    <t>Autofilter excel</t>
+  </si>
+  <si>
+    <t>Filter otomatis Excel</t>
+  </si>
+  <si>
+    <t>[Ironis-Miris] Blender Cloud</t>
+  </si>
+  <si>
+    <t>gandalf3</t>
+  </si>
+  <si>
+    <t>https://blender.stackexchange.com/questions/15687/making-holes-in-a-mesh</t>
+  </si>
+  <si>
+    <t>Hole in Mesh</t>
+  </si>
+  <si>
+    <t>Buat lubang dalam Mesh</t>
+  </si>
+  <si>
+    <t>Chipper Videos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7UzABVPVXtM</t>
+  </si>
+  <si>
+    <t>Stretch video Kdenlive</t>
+  </si>
+  <si>
+    <t>Cara strectch video di Kdenlive</t>
   </si>
 </sst>
 </file>
@@ -478,7 +546,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,8 +562,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +588,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,12 +611,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipertaut" xfId="1" builtinId="8"/>
@@ -809,16 +902,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+    <col min="2" max="2" width="88.33203125" customWidth="1"/>
     <col min="3" max="3" width="58.44140625" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
@@ -872,7 +965,7 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
@@ -886,7 +979,7 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
@@ -900,7 +993,7 @@
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
@@ -914,7 +1007,7 @@
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C7" t="s">
@@ -928,7 +1021,7 @@
       <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C8" t="s">
@@ -942,7 +1035,7 @@
       <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C9" t="s">
@@ -970,7 +1063,7 @@
       <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C11" t="s">
@@ -984,7 +1077,7 @@
       <c r="A12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C12" t="s">
@@ -998,7 +1091,7 @@
       <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C13" t="s">
@@ -1012,7 +1105,7 @@
       <c r="A14" t="s">
         <v>124</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C14" t="s">
@@ -1026,7 +1119,7 @@
       <c r="A15" t="s">
         <v>127</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C15" t="s">
@@ -1040,7 +1133,7 @@
       <c r="A16" t="s">
         <v>131</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C16" t="s">
@@ -1054,7 +1147,7 @@
       <c r="A17" t="s">
         <v>135</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C17" t="s">
@@ -1068,7 +1161,7 @@
       <c r="A18" t="s">
         <v>138</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C18" t="s">
@@ -1082,7 +1175,7 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C19" t="s">
@@ -1092,23 +1185,99 @@
         <v>146</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{518CE555-9118-4462-942C-FA7E956AA36C}"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{8341CB2B-2293-45F0-88B5-43136C56BE15}"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.bing.com/search?q=unity+probuilder&amp;form=EDGTCT&amp;qs=AS&amp;cvid=21509d34d4484303becc906eef91a8fb&amp;refig=a8e419fc3ce1430fe0c1388e8b2d3902&amp;cc=ID&amp;setlang=id-ID&amp;plvar=0&amp;PC=ASTS" xr:uid="{8888DA5E-20EE-497B-9CE3-679392D2E28C}"/>
     <hyperlink ref="B10" r:id="rId3" display="https://www.bing.com/search?q=unity+arduino&amp;form=EDGTCT&amp;qs=AS&amp;cvid=994252eb30c24d75a8f449fe2da9e57b&amp;refig=b7058406c71b4c25b4d274b40bc530dc&amp;cc=ID&amp;setlang=id-ID&amp;plvar=0&amp;PC=ASTS" xr:uid="{9DB667AB-3576-4228-99AD-61E427039138}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{C3C3B09C-5DEB-4B8E-841C-70E0BB31853C}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{6988B4E2-DE3C-457D-B3F7-849EE0F3A545}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{179C3F0F-11D5-4532-ACC3-64B06557D3E6}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{E2754732-5A21-49BB-ADE4-C591E312644F}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{7BBDF7E8-9AAD-4424-9471-29ACF701D104}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{5B0145D8-357F-48D3-B248-62250CD2431B}"/>
+    <hyperlink ref="B11" r:id="rId10" location="54679189" xr:uid="{172E0F0D-F5C6-4BAB-9D86-8447F7C097A9}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{DBDDD647-1B6A-4151-AFF9-4D566AB66D66}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{BB7F0E62-F3DC-4412-9F52-B5C39B254A0C}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{B101E529-B316-4D74-8211-4BBF88BF731D}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{9B87494D-D37E-433C-8510-4481B52753E3}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{EDC5A6B3-DA4A-4662-A68B-E96386544B7D}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{F3DB1784-5D7E-47BA-8E83-2AFBFABEA496}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{237CB907-76FD-4788-880B-AE9C0A3BAFB9}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{360329DC-E504-436D-83F7-72BE2873ED28}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{1549C7E2-EB18-4131-A032-4E94527D9883}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{29097DAE-2D9C-4C70-A00A-9FB81094F203}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{5C53E1C2-DBEB-4402-815D-39B0D71313E5}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{E89A8F8F-5808-437A-8965-D98629B8DBC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5982EF-6D54-4DFF-84A0-34B808DCE994}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,9 +1288,10 @@
     <col min="4" max="4" width="62.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.21875" customWidth="1"/>
     <col min="6" max="6" width="35.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1140,12 +1310,15 @@
       <c r="F1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -1161,11 +1334,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -1181,11 +1354,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
@@ -1201,11 +1374,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C5" t="s">
@@ -1221,11 +1394,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1242,11 +1415,11 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1262,11 +1435,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>78</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C8" t="s">
@@ -1282,11 +1455,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C9" t="s">
@@ -1302,11 +1475,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>91</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C10" t="s">
@@ -1322,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -1339,9 +1512,45 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="8">
+        <v>160000</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{D4998491-F79F-4E20-AD30-35C229566CF5}"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{90C255A6-433B-429B-AC09-4DA27AB53DC1}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{E2682584-8BD1-452F-B20F-EA337EB8024A}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{651C413D-37CD-4D11-96C8-3122ABE6AB22}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{C4B7F807-26A1-4EE7-95B9-AF99406C2693}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{8865E3C4-F424-4A69-8749-47AF6F585A15}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{7E8E5508-B77A-4112-A609-D4AB06DD23B4}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{2A7B9AB8-B79F-41BA-944D-C033FD089E23}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{BF25938B-055B-4C4B-8487-B6409C4DE457}"/>
+    <hyperlink ref="B3" r:id="rId9" xr:uid="{E1149810-C758-477C-9942-C4C33EB25921}"/>
+    <hyperlink ref="B2" r:id="rId10" xr:uid="{2464CB29-9F91-477E-8B13-01380045A292}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1350,7 +1559,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,7 +1745,7 @@
       <c r="A11" t="s">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C11" t="s">
@@ -1550,6 +1759,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{906CCFA5-9A55-4898-8A4F-4996F8FCEFB4}"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{2B93406E-B914-4F7E-9D04-85AA8F1EDAE1}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{B4A70F25-0E74-4F6A-8780-C5CEFFE6BD3E}"/>
@@ -1559,6 +1769,7 @@
     <hyperlink ref="B7" r:id="rId6" xr:uid="{627A03C1-9C03-451E-A9C9-2F5FC22C9ED5}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{AF2171C5-9574-4AE4-871D-FA7A1EE1300E}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{E4A3B2C0-E265-41AA-85FB-647FA8D349F3}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{76DF93BD-999D-4F5D-9CBB-7BEE07701AD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Documents/Credit.xlsx
+++ b/Assets/Documents/Credit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D506834-9CA8-44EA-9E02-566192024E8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C8C9F-6923-4E19-A16E-CFC0DC93C70C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="176">
   <si>
     <t>Penulis</t>
   </si>
@@ -537,6 +537,30 @@
   </si>
   <si>
     <t>Cara strectch video di Kdenlive</t>
+  </si>
+  <si>
+    <t>derHugo</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/55752495/unity-2019-1-0f2-blender-could-not-convert-the-blend-file-to-fbx-file</t>
+  </si>
+  <si>
+    <t>Unity 2019 import blender into FBX bug workaround</t>
+  </si>
+  <si>
+    <t>Unity 2019 terdapat masalah dengan impor Blender sebelum versi 2.8</t>
+  </si>
+  <si>
+    <t>Manash Kumar Mandal</t>
+  </si>
+  <si>
+    <t>https://blog.manash.me/serial-communication-with-an-arduino-using-c-on-windows-d08710186498</t>
+  </si>
+  <si>
+    <t>Arduino Serial communication C++</t>
+  </si>
+  <si>
+    <t>Komunikasi arduino menggunakan C++ melalui serial, buat Godot C++</t>
   </si>
 </sst>
 </file>
@@ -902,18 +926,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
     <col min="2" max="2" width="88.33203125" customWidth="1"/>
     <col min="3" max="3" width="58.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="4" max="4" width="59.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1239,6 +1263,34 @@
       </c>
       <c r="D23" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1266,9 +1318,11 @@
     <hyperlink ref="B21" r:id="rId20" xr:uid="{29097DAE-2D9C-4C70-A00A-9FB81094F203}"/>
     <hyperlink ref="B22" r:id="rId21" xr:uid="{5C53E1C2-DBEB-4402-815D-39B0D71313E5}"/>
     <hyperlink ref="B23" r:id="rId22" xr:uid="{E89A8F8F-5808-437A-8965-D98629B8DBC2}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{53E47B73-95BD-4621-AFA8-AB441A3721F0}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{C1F73AF8-7AD1-45AE-9C38-E427FA6FE6BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId25"/>
 </worksheet>
 </file>
 
